--- a/Hotel Review Dataset Filtered.xlsx
+++ b/Hotel Review Dataset Filtered.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d01d77966552c1dc/Python/ML/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Final ML Model for Hotel Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_C1E8ACFA10F32B80209A1534DE2528E350C61B9B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80DB10A3-09D9-4530-9EF3-9BB5775720F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BDEC58-4CA8-4F68-9C3A-BB01947C24CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
+    <sheet name="testing" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5746" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6902" uniqueCount="244">
   <si>
     <t>Hotel Name</t>
   </si>
@@ -1141,7 +1142,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AE29D43D-644A-4E18-B1F7-20C4D0567BF1}" name="Table2" displayName="Table2" ref="A1:Q338" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AE29D43D-644A-4E18-B1F7-20C4D0567BF1}" name="Table2" displayName="Table2" ref="A1:Q338" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:Q338" xr:uid="{AE29D43D-644A-4E18-B1F7-20C4D0567BF1}">
     <filterColumn colId="0">
       <filters>
@@ -1243,23 +1244,23 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{5BE88EE6-7D95-40B9-9BCB-D61A7D777B77}" name="Hotel Name" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{FFD431ED-8C21-4252-BD75-F5170F95E4CB}" name="Location" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{1E7EA1F4-9371-4E01-9178-B088EB3F16A9}" name="Country" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{6E07FE0B-8FBC-4DF7-8567-69085BA7668B}" name="Q1. Location and accessibility was as expected." dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{44A071CE-710B-4816-A770-468EF3F97FCB}" name="Q2. Quality of service was as expectation." dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{15BEC922-7352-4DC5-824B-3DCE33FBA6DB}" name="Q3. Room comfort and cleanliness was suitable." dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{C8501538-2EE4-4AAD-AE78-92AE2B03E044}" name="Q4. Facilities and amenities was proper. " dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{22953C4D-D39D-48B6-8454-0BACABDFC70A}" name="Q5. Food and beverage options was as expectation." dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{7903C7EE-3228-4EA6-9077-4B59577893A3}" name="Q6. Staff Behavior and management was good.  " dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{865DA6BC-512F-4720-986C-38E50106EB8C}" name="Q7. Safety and security was as per norms of the hospitality. " dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{26879010-B440-494A-958B-48016FFC0C94}" name="Q8. Fitness center facility was as expected. " dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{6642D1D4-2787-4A9A-9D28-BDD94BD50184}" name="Q9. Foreign Language Knowledge Staff facility availability." dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{1A375C6F-0D73-43B1-9873-56BC22CA332C}" name="Q10. Transport facility was as expectation.  " dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{4AE28B06-7760-4D9A-AAE4-5EB10443B732}" name="Q11. Internet and Wi-Fi facility was good. " dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{CDD972E9-A234-4B5C-98D1-0A5389F9C26F}" name="Q12. All the entertainment facilities was good. " dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{4DBD9AEE-3A86-4617-B685-D1FA8C5619E6}" name="Q13. Value for money saved as compare to other. " dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{CC4B6349-EF12-498A-9442-0E2B8F80454B}" name="Q14. You will recommend this hotel facility to your friends.  " dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5BE88EE6-7D95-40B9-9BCB-D61A7D777B77}" name="Hotel Name" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{FFD431ED-8C21-4252-BD75-F5170F95E4CB}" name="Location" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{1E7EA1F4-9371-4E01-9178-B088EB3F16A9}" name="Country" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{6E07FE0B-8FBC-4DF7-8567-69085BA7668B}" name="Q1. Location and accessibility was as expected." dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{44A071CE-710B-4816-A770-468EF3F97FCB}" name="Q2. Quality of service was as expectation." dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{15BEC922-7352-4DC5-824B-3DCE33FBA6DB}" name="Q3. Room comfort and cleanliness was suitable." dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{C8501538-2EE4-4AAD-AE78-92AE2B03E044}" name="Q4. Facilities and amenities was proper. " dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{22953C4D-D39D-48B6-8454-0BACABDFC70A}" name="Q5. Food and beverage options was as expectation." dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{7903C7EE-3228-4EA6-9077-4B59577893A3}" name="Q6. Staff Behavior and management was good.  " dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{865DA6BC-512F-4720-986C-38E50106EB8C}" name="Q7. Safety and security was as per norms of the hospitality. " dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{26879010-B440-494A-958B-48016FFC0C94}" name="Q8. Fitness center facility was as expected. " dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{6642D1D4-2787-4A9A-9D28-BDD94BD50184}" name="Q9. Foreign Language Knowledge Staff facility availability." dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{1A375C6F-0D73-43B1-9873-56BC22CA332C}" name="Q10. Transport facility was as expectation.  " dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{4AE28B06-7760-4D9A-AAE4-5EB10443B732}" name="Q11. Internet and Wi-Fi facility was good. " dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{CDD972E9-A234-4B5C-98D1-0A5389F9C26F}" name="Q12. All the entertainment facilities was good. " dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{4DBD9AEE-3A86-4617-B685-D1FA8C5619E6}" name="Q13. Value for money saved as compare to other. " dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{CC4B6349-EF12-498A-9442-0E2B8F80454B}" name="Q14. You will recommend this hotel facility to your friends.  " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1468,32 +1469,32 @@
   </sheetPr>
   <dimension ref="A1:Q338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P318" sqref="P318"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="1" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="46.453125" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="6" max="6" width="46.5703125" customWidth="1"/>
-    <col min="7" max="7" width="40.140625" customWidth="1"/>
-    <col min="8" max="8" width="50.140625" customWidth="1"/>
-    <col min="9" max="9" width="47.140625" customWidth="1"/>
-    <col min="10" max="10" width="57.140625" customWidth="1"/>
-    <col min="11" max="11" width="42.7109375" customWidth="1"/>
-    <col min="12" max="12" width="56.7109375" customWidth="1"/>
-    <col min="13" max="13" width="42.5703125" customWidth="1"/>
+    <col min="6" max="6" width="46.54296875" customWidth="1"/>
+    <col min="7" max="7" width="40.1796875" customWidth="1"/>
+    <col min="8" max="8" width="50.1796875" customWidth="1"/>
+    <col min="9" max="9" width="47.1796875" customWidth="1"/>
+    <col min="10" max="10" width="57.1796875" customWidth="1"/>
+    <col min="11" max="11" width="42.7265625" customWidth="1"/>
+    <col min="12" max="12" width="56.7265625" customWidth="1"/>
+    <col min="13" max="13" width="42.54296875" customWidth="1"/>
     <col min="14" max="14" width="41" customWidth="1"/>
-    <col min="15" max="15" width="45.42578125" customWidth="1"/>
-    <col min="16" max="16" width="48.42578125" customWidth="1"/>
-    <col min="17" max="17" width="57.140625" customWidth="1"/>
-    <col min="18" max="23" width="18.85546875" customWidth="1"/>
+    <col min="15" max="15" width="45.453125" customWidth="1"/>
+    <col min="16" max="16" width="48.453125" customWidth="1"/>
+    <col min="17" max="17" width="57.1796875" customWidth="1"/>
+    <col min="18" max="23" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1546,7 +1547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1652,7 +1653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1705,7 +1706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1758,7 +1759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1811,7 +1812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1864,7 +1865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1917,7 +1918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1970,7 +1971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -2076,7 +2077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -2182,7 +2183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -2341,7 +2342,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
@@ -2447,7 +2448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
@@ -2500,7 +2501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -2606,7 +2607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
@@ -2659,7 +2660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
@@ -2765,7 +2766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
@@ -2871,7 +2872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
@@ -2924,7 +2925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,7 +3031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>73</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
@@ -3136,7 +3137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
@@ -3189,7 +3190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>79</v>
       </c>
@@ -3242,7 +3243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
@@ -3295,7 +3296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
@@ -3348,7 +3349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>83</v>
       </c>
@@ -3401,7 +3402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>84</v>
       </c>
@@ -3454,7 +3455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>87</v>
       </c>
@@ -3507,7 +3508,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>88</v>
       </c>
@@ -3560,7 +3561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
@@ -3666,7 +3667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>91</v>
       </c>
@@ -3719,7 +3720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>93</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>95</v>
       </c>
@@ -3825,7 +3826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>96</v>
       </c>
@@ -3878,7 +3879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>97</v>
       </c>
@@ -3931,7 +3932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>98</v>
       </c>
@@ -3984,7 +3985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>96</v>
       </c>
@@ -4037,7 +4038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>99</v>
       </c>
@@ -4090,7 +4091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>96</v>
       </c>
@@ -4143,7 +4144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>96</v>
       </c>
@@ -4249,7 +4250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>101</v>
       </c>
@@ -4302,7 +4303,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>103</v>
       </c>
@@ -4355,7 +4356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>96</v>
       </c>
@@ -4408,7 +4409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>106</v>
       </c>
@@ -4461,7 +4462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>107</v>
       </c>
@@ -4514,7 +4515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>108</v>
       </c>
@@ -4567,7 +4568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>96</v>
       </c>
@@ -4620,7 +4621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>109</v>
       </c>
@@ -4673,7 +4674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>110</v>
       </c>
@@ -4726,7 +4727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
@@ -4779,7 +4780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>111</v>
       </c>
@@ -4832,7 +4833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>112</v>
       </c>
@@ -4885,7 +4886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>96</v>
       </c>
@@ -4938,7 +4939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>96</v>
       </c>
@@ -4991,7 +4992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>113</v>
       </c>
@@ -5044,7 +5045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>96</v>
       </c>
@@ -5097,7 +5098,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>114</v>
       </c>
@@ -5150,7 +5151,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>115</v>
       </c>
@@ -5203,7 +5204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>106</v>
       </c>
@@ -5256,7 +5257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>107</v>
       </c>
@@ -5309,7 +5310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>116</v>
       </c>
@@ -5362,7 +5363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>96</v>
       </c>
@@ -5415,7 +5416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>96</v>
       </c>
@@ -5468,7 +5469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>96</v>
       </c>
@@ -5521,7 +5522,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>107</v>
       </c>
@@ -5574,7 +5575,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>96</v>
       </c>
@@ -5627,7 +5628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>117</v>
       </c>
@@ -5680,7 +5681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>118</v>
       </c>
@@ -5733,7 +5734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>96</v>
       </c>
@@ -5786,7 +5787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>119</v>
       </c>
@@ -5839,7 +5840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>96</v>
       </c>
@@ -5892,7 +5893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>120</v>
       </c>
@@ -5945,7 +5946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>96</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>99</v>
       </c>
@@ -6051,7 +6052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>107</v>
       </c>
@@ -6104,7 +6105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>122</v>
       </c>
@@ -6157,7 +6158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>123</v>
       </c>
@@ -6210,7 +6211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>124</v>
       </c>
@@ -6263,7 +6264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>96</v>
       </c>
@@ -6316,7 +6317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>107</v>
       </c>
@@ -6369,7 +6370,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>116</v>
       </c>
@@ -6422,7 +6423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
@@ -6475,7 +6476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
@@ -6528,7 +6529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>125</v>
       </c>
@@ -6581,7 +6582,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
@@ -6634,7 +6635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>126</v>
       </c>
@@ -6687,7 +6688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>127</v>
       </c>
@@ -6740,7 +6741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>106</v>
       </c>
@@ -6793,7 +6794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>111</v>
       </c>
@@ -6846,7 +6847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>61</v>
       </c>
@@ -6899,7 +6900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>96</v>
       </c>
@@ -6952,7 +6953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>128</v>
       </c>
@@ -7005,7 +7006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>99</v>
       </c>
@@ -7058,7 +7059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>99</v>
       </c>
@@ -7111,7 +7112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>99</v>
       </c>
@@ -7164,7 +7165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>130</v>
       </c>
@@ -7217,7 +7218,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>131</v>
       </c>
@@ -7270,7 +7271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>99</v>
       </c>
@@ -7323,7 +7324,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>132</v>
       </c>
@@ -7376,7 +7377,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>133</v>
       </c>
@@ -7429,7 +7430,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>134</v>
       </c>
@@ -7482,7 +7483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>135</v>
       </c>
@@ -7535,7 +7536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>99</v>
       </c>
@@ -7588,7 +7589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>96</v>
       </c>
@@ -7641,7 +7642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>107</v>
       </c>
@@ -7694,7 +7695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>136</v>
       </c>
@@ -7747,7 +7748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>99</v>
       </c>
@@ -7800,7 +7801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>136</v>
       </c>
@@ -7853,7 +7854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>138</v>
       </c>
@@ -7906,7 +7907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>106</v>
       </c>
@@ -7959,7 +7960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>139</v>
       </c>
@@ -8012,7 +8013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>140</v>
       </c>
@@ -8065,7 +8066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>116</v>
       </c>
@@ -8118,7 +8119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>106</v>
       </c>
@@ -8171,7 +8172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>133</v>
       </c>
@@ -8224,7 +8225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>106</v>
       </c>
@@ -8277,7 +8278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>134</v>
       </c>
@@ -8330,7 +8331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>114</v>
       </c>
@@ -8383,7 +8384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>133</v>
       </c>
@@ -8436,7 +8437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>99</v>
       </c>
@@ -8489,7 +8490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>143</v>
       </c>
@@ -8542,7 +8543,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>128</v>
       </c>
@@ -8595,7 +8596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
@@ -8648,7 +8649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>99</v>
       </c>
@@ -8701,7 +8702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>107</v>
       </c>
@@ -8754,7 +8755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>99</v>
       </c>
@@ -8807,7 +8808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>107</v>
       </c>
@@ -8860,7 +8861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>134</v>
       </c>
@@ -8913,7 +8914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>116</v>
       </c>
@@ -8966,7 +8967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>99</v>
       </c>
@@ -9019,7 +9020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>99</v>
       </c>
@@ -9072,7 +9073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>61</v>
       </c>
@@ -9125,7 +9126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>106</v>
       </c>
@@ -9178,7 +9179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>99</v>
       </c>
@@ -9231,7 +9232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
@@ -9284,7 +9285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>106</v>
       </c>
@@ -9337,7 +9338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>146</v>
       </c>
@@ -9390,7 +9391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
@@ -9443,7 +9444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>134</v>
       </c>
@@ -9496,7 +9497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>149</v>
       </c>
@@ -9549,7 +9550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>107</v>
       </c>
@@ -9602,7 +9603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>150</v>
       </c>
@@ -9655,7 +9656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>152</v>
       </c>
@@ -9708,7 +9709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>154</v>
       </c>
@@ -9761,7 +9762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>106</v>
       </c>
@@ -9814,7 +9815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>143</v>
       </c>
@@ -9867,7 +9868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>155</v>
       </c>
@@ -9920,7 +9921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>156</v>
       </c>
@@ -9973,7 +9974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>96</v>
       </c>
@@ -10026,7 +10027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>133</v>
       </c>
@@ -10079,7 +10080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>120</v>
       </c>
@@ -10132,7 +10133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>158</v>
       </c>
@@ -10185,7 +10186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>99</v>
       </c>
@@ -10238,7 +10239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>115</v>
       </c>
@@ -10291,7 +10292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>136</v>
       </c>
@@ -10344,7 +10345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>106</v>
       </c>
@@ -10397,7 +10398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>159</v>
       </c>
@@ -10450,7 +10451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>106</v>
       </c>
@@ -10503,7 +10504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>161</v>
       </c>
@@ -10556,7 +10557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>162</v>
       </c>
@@ -10609,7 +10610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>163</v>
       </c>
@@ -10662,7 +10663,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>164</v>
       </c>
@@ -10715,7 +10716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>107</v>
       </c>
@@ -10768,7 +10769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>164</v>
       </c>
@@ -10821,7 +10822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>156</v>
       </c>
@@ -10874,7 +10875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>60</v>
       </c>
@@ -10927,7 +10928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>96</v>
       </c>
@@ -10980,7 +10981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>165</v>
       </c>
@@ -11033,7 +11034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>167</v>
       </c>
@@ -11086,7 +11087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>168</v>
       </c>
@@ -11139,7 +11140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>83</v>
       </c>
@@ -11192,7 +11193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>170</v>
       </c>
@@ -11245,7 +11246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>171</v>
       </c>
@@ -11298,7 +11299,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>172</v>
       </c>
@@ -11351,7 +11352,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>173</v>
       </c>
@@ -11404,7 +11405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>174</v>
       </c>
@@ -11457,7 +11458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>109</v>
       </c>
@@ -11510,7 +11511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>164</v>
       </c>
@@ -11563,7 +11564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>175</v>
       </c>
@@ -11616,7 +11617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>176</v>
       </c>
@@ -11669,7 +11670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>60</v>
       </c>
@@ -11722,7 +11723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>177</v>
       </c>
@@ -11775,7 +11776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>178</v>
       </c>
@@ -11828,7 +11829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>179</v>
       </c>
@@ -11881,7 +11882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>170</v>
       </c>
@@ -11934,7 +11935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>180</v>
       </c>
@@ -11987,7 +11988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>182</v>
       </c>
@@ -12040,7 +12041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>113</v>
       </c>
@@ -12093,7 +12094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>107</v>
       </c>
@@ -12146,7 +12147,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>183</v>
       </c>
@@ -12199,7 +12200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>184</v>
       </c>
@@ -12252,7 +12253,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>127</v>
       </c>
@@ -12305,7 +12306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>116</v>
       </c>
@@ -12358,7 +12359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>99</v>
       </c>
@@ -12411,7 +12412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>186</v>
       </c>
@@ -12464,7 +12465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>131</v>
       </c>
@@ -12517,7 +12518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>187</v>
       </c>
@@ -12570,7 +12571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>96</v>
       </c>
@@ -12623,7 +12624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>99</v>
       </c>
@@ -12676,7 +12677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>188</v>
       </c>
@@ -12729,7 +12730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>189</v>
       </c>
@@ -12782,7 +12783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>99</v>
       </c>
@@ -12835,7 +12836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>99</v>
       </c>
@@ -12888,7 +12889,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>116</v>
       </c>
@@ -12941,7 +12942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>99</v>
       </c>
@@ -12994,7 +12995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>116</v>
       </c>
@@ -13047,7 +13048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>191</v>
       </c>
@@ -13100,7 +13101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>106</v>
       </c>
@@ -13153,7 +13154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>96</v>
       </c>
@@ -13206,7 +13207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>99</v>
       </c>
@@ -13259,7 +13260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>192</v>
       </c>
@@ -13312,7 +13313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>134</v>
       </c>
@@ -13365,7 +13366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>134</v>
       </c>
@@ -13418,7 +13419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>193</v>
       </c>
@@ -13471,7 +13472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>133</v>
       </c>
@@ -13524,7 +13525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>128</v>
       </c>
@@ -13577,7 +13578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>133</v>
       </c>
@@ -13630,7 +13631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>194</v>
       </c>
@@ -13683,7 +13684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>128</v>
       </c>
@@ -13736,7 +13737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>124</v>
       </c>
@@ -13789,7 +13790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>134</v>
       </c>
@@ -13842,7 +13843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>99</v>
       </c>
@@ -13895,7 +13896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>195</v>
       </c>
@@ -13948,7 +13949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>106</v>
       </c>
@@ -14001,7 +14002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>116</v>
       </c>
@@ -14054,7 +14055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>84</v>
       </c>
@@ -14107,7 +14108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>99</v>
       </c>
@@ -14160,7 +14161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>151</v>
       </c>
@@ -14213,7 +14214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>136</v>
       </c>
@@ -14266,7 +14267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>164</v>
       </c>
@@ -14319,7 +14320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>128</v>
       </c>
@@ -14372,7 +14373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>197</v>
       </c>
@@ -14425,7 +14426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>148</v>
       </c>
@@ -14478,7 +14479,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>199</v>
       </c>
@@ -14531,7 +14532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>99</v>
       </c>
@@ -14584,7 +14585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>133</v>
       </c>
@@ -14637,7 +14638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>133</v>
       </c>
@@ -14690,7 +14691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>201</v>
       </c>
@@ -14743,7 +14744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>163</v>
       </c>
@@ -14796,7 +14797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>203</v>
       </c>
@@ -14849,7 +14850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>204</v>
       </c>
@@ -14902,7 +14903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>205</v>
       </c>
@@ -14955,7 +14956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>206</v>
       </c>
@@ -15008,7 +15009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>161</v>
       </c>
@@ -15061,7 +15062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>207</v>
       </c>
@@ -15114,7 +15115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>209</v>
       </c>
@@ -15167,7 +15168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>210</v>
       </c>
@@ -15220,7 +15221,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>211</v>
       </c>
@@ -15273,7 +15274,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>212</v>
       </c>
@@ -15326,7 +15327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>203</v>
       </c>
@@ -15379,7 +15380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>99</v>
       </c>
@@ -15432,7 +15433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>107</v>
       </c>
@@ -15485,7 +15486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>214</v>
       </c>
@@ -15538,7 +15539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>116</v>
       </c>
@@ -15591,7 +15592,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>215</v>
       </c>
@@ -15644,7 +15645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>96</v>
       </c>
@@ -15697,7 +15698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>96</v>
       </c>
@@ -15750,7 +15751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>131</v>
       </c>
@@ -15803,7 +15804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>156</v>
       </c>
@@ -15856,7 +15857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>127</v>
       </c>
@@ -15909,7 +15910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>216</v>
       </c>
@@ -15962,7 +15963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>149</v>
       </c>
@@ -16015,7 +16016,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>218</v>
       </c>
@@ -16068,7 +16069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>209</v>
       </c>
@@ -16121,7 +16122,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>206</v>
       </c>
@@ -16174,7 +16175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>158</v>
       </c>
@@ -16227,7 +16228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>148</v>
       </c>
@@ -16280,7 +16281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>60</v>
       </c>
@@ -16333,7 +16334,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>113</v>
       </c>
@@ -16386,7 +16387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>219</v>
       </c>
@@ -16439,7 +16440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>209</v>
       </c>
@@ -16492,7 +16493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>220</v>
       </c>
@@ -16545,7 +16546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>156</v>
       </c>
@@ -16598,7 +16599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>222</v>
       </c>
@@ -16651,7 +16652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>116</v>
       </c>
@@ -16704,7 +16705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>136</v>
       </c>
@@ -16757,7 +16758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>136</v>
       </c>
@@ -16810,7 +16811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>99</v>
       </c>
@@ -16863,7 +16864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>223</v>
       </c>
@@ -16916,7 +16917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>156</v>
       </c>
@@ -16969,7 +16970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>116</v>
       </c>
@@ -17022,7 +17023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>128</v>
       </c>
@@ -17075,7 +17076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>127</v>
       </c>
@@ -17128,7 +17129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>218</v>
       </c>
@@ -17181,7 +17182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>83</v>
       </c>
@@ -17234,7 +17235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>158</v>
       </c>
@@ -17287,7 +17288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>225</v>
       </c>
@@ -17340,7 +17341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>226</v>
       </c>
@@ -17393,7 +17394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>156</v>
       </c>
@@ -17446,7 +17447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>227</v>
       </c>
@@ -17499,7 +17500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>134</v>
       </c>
@@ -17552,7 +17553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>229</v>
       </c>
@@ -17605,7 +17606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>107</v>
       </c>
@@ -17658,7 +17659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>230</v>
       </c>
@@ -17711,7 +17712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>60</v>
       </c>
@@ -17764,7 +17765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>120</v>
       </c>
@@ -17817,7 +17818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>203</v>
       </c>
@@ -17870,7 +17871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>109</v>
       </c>
@@ -17923,7 +17924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>116</v>
       </c>
@@ -17976,7 +17977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>134</v>
       </c>
@@ -18029,7 +18030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>99</v>
       </c>
@@ -18082,7 +18083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>232</v>
       </c>
@@ -18135,7 +18136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>99</v>
       </c>
@@ -18188,7 +18189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>170</v>
       </c>
@@ -18241,7 +18242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>156</v>
       </c>
@@ -18294,7 +18295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>158</v>
       </c>
@@ -18347,7 +18348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>235</v>
       </c>
@@ -18400,7 +18401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>133</v>
       </c>
@@ -18453,7 +18454,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>156</v>
       </c>
@@ -18506,7 +18507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>116</v>
       </c>
@@ -18559,7 +18560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>235</v>
       </c>
@@ -18612,7 +18613,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>237</v>
       </c>
@@ -18665,7 +18666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>99</v>
       </c>
@@ -18718,7 +18719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>96</v>
       </c>
@@ -18771,7 +18772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>99</v>
       </c>
@@ -18824,7 +18825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>239</v>
       </c>
@@ -18877,7 +18878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>116</v>
       </c>
@@ -18930,7 +18931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>106</v>
       </c>
@@ -18983,7 +18984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>134</v>
       </c>
@@ -19036,7 +19037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>99</v>
       </c>
@@ -19089,7 +19090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>96</v>
       </c>
@@ -19142,7 +19143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>241</v>
       </c>
@@ -19195,7 +19196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>177</v>
       </c>
@@ -19248,7 +19249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>243</v>
       </c>
@@ -19301,7 +19302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>109</v>
       </c>
@@ -19354,7 +19355,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>161</v>
       </c>
@@ -19413,4 +19414,3642 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B51BA73-03F3-4C0C-9DF6-B3D360674282}">
+  <dimension ref="A1:Q68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="49.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>